--- a/tournament_results.xlsx
+++ b/tournament_results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="460" windowWidth="20720" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="4880" yWindow="460" windowWidth="20720" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Isolation Tournament</t>
   </si>
@@ -38,22 +39,7 @@
     <t>Improved_ID</t>
   </si>
   <si>
-    <t>#moves_player - 2 * #moves_opp</t>
-  </si>
-  <si>
     <t>Heuristic</t>
-  </si>
-  <si>
-    <t>Heuristic 1 + 
-late_game_length_move_chain</t>
-  </si>
-  <si>
-    <t>Heuristic 2 + 
-(player_location - opp_location)</t>
-  </si>
-  <si>
-    <t>Heuristic 2 + 
-(player_location - board_center)</t>
   </si>
   <si>
     <t>Combined</t>
@@ -82,12 +68,40 @@
   <si>
     <t>Column8</t>
   </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Heuristic1</t>
+  </si>
+  <si>
+    <t>(Heuristic1) and Heuristic4</t>
+  </si>
+  <si>
+    <t>(Heuristic1 + Heuristic2) and Heuristic4</t>
+  </si>
+  <si>
+    <t>(Heuristic1 - Heuristic3) and Heuristic4</t>
+  </si>
+  <si>
+    <t>(#moves_player - 2 * #moves_opp) and Heuristic4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,22 +217,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -247,20 +259,52 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -439,20 +483,3611 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="84000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$D$27:$D$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.012</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0029</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0117</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0145</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0055</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$D$27:$D$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.012</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0029</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0117</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0145</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0055</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$27:$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Improved_ID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Heuristic1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>(Heuristic1) and Heuristic4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(Heuristic1 + Heuristic2) and Heuristic4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(Heuristic1 - Heuristic3) and Heuristic4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.760651162790698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75446976744186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.764762790697674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.764293023255814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.750630232558139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="41"/>
+        <c:axId val="754953616"/>
+        <c:axId val="783301312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="754953616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783301312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="783301312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="754953616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="68000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Improved_ID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$A$8:$M$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0735980072193989</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0970395108533975</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.136626010212795</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.129421791055448</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.112915897906362</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.143759057685652</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.254296414970142</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.263944438597722</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.560133912560202</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.568550789287993</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.904157066001256</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.430842198490352</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.298396446904144</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$A$8:$M$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0735980072193989</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0970395108533975</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.136626010212795</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.129421791055448</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.112915897906362</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.143759057685652</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.254296414970142</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.263944438597722</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.560133912560202</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.568550789287993</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.904157066001256</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.430842198490352</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.298396446904144</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$22:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6.358333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.508333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.883333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.024999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.516666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.475</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.7875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.566666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(#moves_player - 2 * #moves_opp) and Heuristic4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$A$18:$M$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0948683298050514</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.160208197875972</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.144048602908879</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0664580067912563</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.188856206322871</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.237521928812198</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.341686991265398</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.544747647998594</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.706753139363385</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.883529852353615</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$A$18:$M$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0948683298050514</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.160208197875972</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.144048602908879</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0664580067912563</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.188856206322871</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.237521928812198</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.341686991265398</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.544747647998594</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.706753139363385</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.883529852353615</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.533333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.908333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.966666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.358333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.0125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-14661488"/>
+        <c:axId val="-3666144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-14661488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#move</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-3666144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-3666144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="11.0"/>
+          <c:min val="5.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>search</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> depth</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-14661488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0516513252744815"/>
+          <c:y val="0.0408719346049046"/>
+          <c:w val="0.934264167683265"/>
+          <c:h val="0.763546525349181"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Improved_ID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$A$60:$K$60</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.0534244014160821</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0274620950888068</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0807929452365737</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.043674935603845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0254296414970143</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0639335592627221</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0731778655059029</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.157019107117574</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.232712268692478</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.369932426261879</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.538166253741971</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$A$60:$K$60</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.0534244014160821</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0274620950888068</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0807929452365737</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.043674935603845</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0254296414970143</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0639335592627221</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0731778655059029</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.157019107117574</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.232712268692478</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.369932426261879</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.538166253741971</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$75:$L$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.400833333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.589166666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.892500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.196666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.670999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.928750000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(#moves_player - 2 * #moves_opp) and Heuristic4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet2!$A$71:$K$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.0363891009323763</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0437797517885459</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0496655480858377</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.07659960835409</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0483132142034318</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0501663898109745</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0701427116670007</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.193700800204852</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.3483102065688</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.488082984747471</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet2!$A$71:$K$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.0363891009323763</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0437797517885459</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0496655480858377</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.07659960835409</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0483132142034318</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0501663898109745</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0701427116670007</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.193700800204852</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.3483102065688</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.488082984747471</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$76:$L$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.099166666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.261666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.538333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.747500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.834166666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.931666666666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.857000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.565</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="834323824"/>
+        <c:axId val="792677280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="834323824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>move</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792677280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="792677280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="11.0"/>
+          <c:min val="5.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>average search depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="834323824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="68000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="84000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A3:H9" totalsRowShown="0" dataDxfId="8" dataCellStyle="Percent">
-  <autoFilter ref="A3:H9"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Column1" dataDxfId="7"/>
-    <tableColumn id="2" name="Column2" dataDxfId="6"/>
-    <tableColumn id="3" name="Column3" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="4" name="Column4" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="5" name="Column5" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="6" name="Column6" dataDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="7" name="Column7" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="8" name="Column8" dataDxfId="0" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A3:I9" totalsRowShown="0" dataDxfId="9" dataCellStyle="Percent">
+  <autoFilter ref="A3:I9"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Column1" dataDxfId="8"/>
+    <tableColumn id="2" name="Column2" dataDxfId="7"/>
+    <tableColumn id="3" name="Column3" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="4" name="Column4" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="5" name="Column5" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="6" name="Column6" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="7" name="Column7" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="8" name="Column8" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>(C4*5+D4*5+E4*5+F4*100+G4*100) / SUM(C$4:G$4)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="9" name="Column9" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -721,216 +4356,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>100</v>
+      </c>
+      <c r="G4" s="9">
+        <v>100</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9">
-        <v>5</v>
-      </c>
-      <c r="F4" s="9">
-        <v>100</v>
-      </c>
-      <c r="G4" s="10">
-        <v>100</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.72860000000000003</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.7</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.77139999999999997</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.76500000000000001</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>0.76039999999999996</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f>(C5*5+D5*5+E5*5+F5*100+G5*100) / SUM(C$4:G$4)</f>
         <v>0.76065116279069767</v>
       </c>
+      <c r="I5" s="13"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
         <v>0.75</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.7571</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.7571</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.74890000000000001</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.76</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <f>(C6*5+D6*5+E6*5+F6*100+G6*100) / SUM(C$4:G$4)</f>
         <v>0.75446976744186056</v>
       </c>
+      <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10">
         <v>0.71430000000000005</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>0.80710000000000004</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>0.77139999999999997</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>0.76070000000000004</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>0.76890000000000003</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <f>(C7*5+D7*5+E7*5+F7*100+G7*100) / SUM(C$4:G$4)</f>
         <v>0.7647627906976745</v>
       </c>
+      <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10">
         <v>0.77859999999999996</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0.72860000000000003</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0.72140000000000004</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0.75749999999999995</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>0.77429999999999999</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <f>(C8*5+D8*5+E8*5+F8*100+G8*100) / SUM(C$4:G$4)</f>
         <v>0.76429302325581383</v>
       </c>
+      <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10">
         <v>0.78569999999999995</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>0.7571</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0.76429999999999998</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.75390000000000001</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>0.74460000000000004</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <f>(C9*5+D9*5+E9*5+F9*100+G9*100) / SUM(C$4:G$4)</f>
         <v>0.75063023255813954</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="14">
+        <f>C5*100</f>
+        <v>72.86</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" ref="D12:H12" si="0">D5*100</f>
+        <v>70</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
+        <v>77.14</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="0"/>
+        <v>76.039999999999992</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>76.06511627906977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="14">
+        <f t="shared" ref="C13:H13" si="1">C6*100</f>
+        <v>75</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="1"/>
+        <v>75.709999999999994</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="1"/>
+        <v>75.709999999999994</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="1"/>
+        <v>74.89</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="1"/>
+        <v>75.44697674418606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="14">
+        <f t="shared" ref="C14:H14" si="2">C7*100</f>
+        <v>71.430000000000007</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="2"/>
+        <v>80.710000000000008</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="2"/>
+        <v>77.14</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="2"/>
+        <v>76.070000000000007</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="2"/>
+        <v>76.89</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="2"/>
+        <v>76.476279069767443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="14">
+        <f t="shared" ref="C15:H15" si="3">C8*100</f>
+        <v>77.86</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="3"/>
+        <v>72.86</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="3"/>
+        <v>72.14</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="3"/>
+        <v>75.75</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="3"/>
+        <v>77.429999999999993</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="3"/>
+        <v>76.429302325581389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="14">
+        <f t="shared" ref="C16:H16" si="4">C9*100</f>
+        <v>78.569999999999993</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="4"/>
+        <v>75.709999999999994</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="4"/>
+        <v>76.429999999999993</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="4"/>
+        <v>75.39</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="4"/>
+        <v>74.460000000000008</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="4"/>
+        <v>75.06302325581396</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f>(C12-$H12)^2</f>
+        <v>10.272770362358049</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:G19" si="5">(D12-$H12)^2</f>
+        <v>36.785635478637126</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>1.1553750135208185</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>0.18912385073012244</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>6.3082747431095069E-4</v>
+      </c>
+      <c r="H19" s="16">
+        <f>(C19*5+D19*5+E19*5+F19*100+G19*100) / SUM(C$4:G$4)</f>
+        <v>1.2095087074094106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" ref="C20:G20" si="6">(C13-$H13)^2</f>
+        <v>0.19978820984317025</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>6.9181233098962194E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>6.9181233098962194E-2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>0.31022309356410277</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>0.30583472147105084</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" ref="H20:H23" si="7">(C20*5+D20*5+E20*5+F20*100+G20*100) / SUM(C$4:G$4)</f>
+        <v>0.29440248783125966</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" ref="C21:G21" si="8">(C14-$H14)^2</f>
+        <v>25.464932449972903</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="8"/>
+        <v>17.924392915089292</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="8"/>
+        <v>0.44052547322877117</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="8"/>
+        <v>0.16506268253109305</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>0.17116500811249255</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="7"/>
+        <v>1.1756838290968066</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" ref="C22:G22" si="9">(C15-$H15)^2</f>
+        <v>2.0468958355868194</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="9"/>
+        <v>12.739919091400719</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="9"/>
+        <v>18.398114440237908</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="9"/>
+        <v>0.46145164954028378</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="9"/>
+        <v>1.0013958355868011</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="7"/>
+        <v>1.4521367225527244</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" ref="C23:G23" si="10">(C16-$H16)^2</f>
+        <v>12.298885884261672</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="10"/>
+        <v>0.41857890751756105</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="10"/>
+        <v>1.868625419145447</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="10"/>
+        <v>0.10691379123850366</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="10"/>
+        <v>0.36363704705245858</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="7"/>
+        <v>0.55807225527311455</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.76065116279069767</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.75446976744186056</v>
+      </c>
+      <c r="D28" s="17">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.7647627906976745</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.76429302325581383</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="15">
+        <v>0.75063023255813954</v>
+      </c>
+      <c r="D31" s="17">
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
   </sheetData>
@@ -939,8 +4900,1399 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>6.35</v>
+      </c>
+      <c r="B1">
+        <v>6.45</v>
+      </c>
+      <c r="C1">
+        <v>6.7</v>
+      </c>
+      <c r="D1">
+        <v>7.15</v>
+      </c>
+      <c r="E1">
+        <v>7.2</v>
+      </c>
+      <c r="F1">
+        <v>7.25</v>
+      </c>
+      <c r="G1">
+        <v>7.5</v>
+      </c>
+      <c r="H1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6.45</v>
+      </c>
+      <c r="B2">
+        <v>6.45</v>
+      </c>
+      <c r="C2">
+        <v>6.8</v>
+      </c>
+      <c r="D2">
+        <v>7.15</v>
+      </c>
+      <c r="E2">
+        <v>7.1</v>
+      </c>
+      <c r="F2">
+        <v>7.05</v>
+      </c>
+      <c r="G2">
+        <v>7.45</v>
+      </c>
+      <c r="H2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6.3</v>
+      </c>
+      <c r="B3">
+        <v>6.4</v>
+      </c>
+      <c r="C3">
+        <v>6.9</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>7.25</v>
+      </c>
+      <c r="F3">
+        <v>7.45</v>
+      </c>
+      <c r="G3">
+        <v>7.7</v>
+      </c>
+      <c r="H3">
+        <v>8.1</v>
+      </c>
+      <c r="I3">
+        <v>8.75</v>
+      </c>
+      <c r="J3">
+        <v>9.75</v>
+      </c>
+      <c r="K3">
+        <v>10.65</v>
+      </c>
+      <c r="L3">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="M3">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6.3</v>
+      </c>
+      <c r="B4">
+        <v>6.6</v>
+      </c>
+      <c r="C4">
+        <v>6.95</v>
+      </c>
+      <c r="D4">
+        <v>7.1</v>
+      </c>
+      <c r="E4">
+        <v>7.2</v>
+      </c>
+      <c r="F4">
+        <v>7.25</v>
+      </c>
+      <c r="G4">
+        <v>7.85</v>
+      </c>
+      <c r="H4">
+        <v>7.7</v>
+      </c>
+      <c r="I4">
+        <v>7.95</v>
+      </c>
+      <c r="J4">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="K4">
+        <v>9.15</v>
+      </c>
+      <c r="L4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="M4">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6.3</v>
+      </c>
+      <c r="B5">
+        <v>6.5</v>
+      </c>
+      <c r="C5">
+        <v>7.1</v>
+      </c>
+      <c r="D5">
+        <v>6.85</v>
+      </c>
+      <c r="E5">
+        <v>7.05</v>
+      </c>
+      <c r="F5">
+        <v>7.2</v>
+      </c>
+      <c r="G5">
+        <v>7.5</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>8.9</v>
+      </c>
+      <c r="K5">
+        <v>9.6</v>
+      </c>
+      <c r="L5">
+        <v>10.1</v>
+      </c>
+      <c r="M5">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>6.45</v>
+      </c>
+      <c r="B6" s="19">
+        <v>6.65</v>
+      </c>
+      <c r="C6" s="19">
+        <v>6.85</v>
+      </c>
+      <c r="D6" s="19">
+        <v>6.9</v>
+      </c>
+      <c r="E6" s="19">
+        <v>6.95</v>
+      </c>
+      <c r="F6" s="19">
+        <v>7.4</v>
+      </c>
+      <c r="G6" s="19">
+        <v>7.1</v>
+      </c>
+      <c r="H6" s="19">
+        <v>8</v>
+      </c>
+      <c r="I6" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="J6" s="19">
+        <v>8.85</v>
+      </c>
+      <c r="K6" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="L6" s="19">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>AVERAGE(A1:A6)</f>
+        <v>6.3583333333333343</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:M7" si="0">AVERAGE(B1:B6)</f>
+        <v>6.5083333333333329</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6.8833333333333329</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>7.0249999999999995</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7.125</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>7.2666666666666666</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>7.5166666666666666</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>7.916666666666667</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>9.17</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>9.4749999999999996</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>9.7874999999999996</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>9.5666666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>STDEV(A1:A6)</f>
+        <v>7.3598007219398895E-2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:M8" si="1">STDEV(B1:B6)</f>
+        <v>9.7039510853397487E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.13662601021279455</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.12942179105544796</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.11291589790636218</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.14375905768565231</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.25429641497014205</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.26394443859772182</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.56013391256020217</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.56855078928799319</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.90415706600125634</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.43084219849035171</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>1.2983964469041442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6.1</v>
+      </c>
+      <c r="B11">
+        <v>6.1</v>
+      </c>
+      <c r="C11">
+        <v>6.45</v>
+      </c>
+      <c r="D11">
+        <v>6.95</v>
+      </c>
+      <c r="E11">
+        <v>6.75</v>
+      </c>
+      <c r="F11">
+        <v>6.95</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>5.95</v>
+      </c>
+      <c r="B12" s="20">
+        <v>6.25</v>
+      </c>
+      <c r="C12" s="20">
+        <v>6.4</v>
+      </c>
+      <c r="D12" s="20">
+        <v>6.55</v>
+      </c>
+      <c r="E12" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="F12" s="20">
+        <v>6.9</v>
+      </c>
+      <c r="G12" s="20">
+        <v>7.15</v>
+      </c>
+      <c r="H12" s="20">
+        <v>7.75</v>
+      </c>
+      <c r="I12" s="20">
+        <v>8.35</v>
+      </c>
+      <c r="J12" s="20">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K12" s="20">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5.85</v>
+      </c>
+      <c r="B13">
+        <v>6.3</v>
+      </c>
+      <c r="C13">
+        <v>6.65</v>
+      </c>
+      <c r="D13">
+        <v>6.8</v>
+      </c>
+      <c r="E13">
+        <v>6.7</v>
+      </c>
+      <c r="F13">
+        <v>6.9</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>7.2</v>
+      </c>
+      <c r="I13">
+        <v>7.85</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>10.15</v>
+      </c>
+      <c r="L13">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5.95</v>
+      </c>
+      <c r="B14">
+        <v>6.2</v>
+      </c>
+      <c r="C14">
+        <v>6.5</v>
+      </c>
+      <c r="D14">
+        <v>6.75</v>
+      </c>
+      <c r="E14">
+        <v>6.75</v>
+      </c>
+      <c r="F14">
+        <v>6.8</v>
+      </c>
+      <c r="G14">
+        <v>7.05</v>
+      </c>
+      <c r="H14">
+        <v>7.35</v>
+      </c>
+      <c r="I14">
+        <v>7.6</v>
+      </c>
+      <c r="J14">
+        <v>7.85</v>
+      </c>
+      <c r="K14">
+        <v>8.35</v>
+      </c>
+      <c r="L14">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>6.4</v>
+      </c>
+      <c r="C15">
+        <v>6.4</v>
+      </c>
+      <c r="D15">
+        <v>6.7</v>
+      </c>
+      <c r="E15">
+        <v>6.75</v>
+      </c>
+      <c r="F15">
+        <v>6.9</v>
+      </c>
+      <c r="G15">
+        <v>6.6</v>
+      </c>
+      <c r="H15">
+        <v>7.35</v>
+      </c>
+      <c r="I15">
+        <v>7.45</v>
+      </c>
+      <c r="J15">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="K15">
+        <v>9.75</v>
+      </c>
+      <c r="L15">
+        <v>10.6</v>
+      </c>
+      <c r="M15">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>5.85</v>
+      </c>
+      <c r="B16" s="19">
+        <v>6.25</v>
+      </c>
+      <c r="C16" s="19">
+        <v>6.8</v>
+      </c>
+      <c r="D16" s="19">
+        <v>6.6</v>
+      </c>
+      <c r="E16" s="19">
+        <v>6.75</v>
+      </c>
+      <c r="F16" s="19">
+        <v>7</v>
+      </c>
+      <c r="G16" s="19">
+        <v>7</v>
+      </c>
+      <c r="H16" s="19">
+        <v>7.45</v>
+      </c>
+      <c r="I16" s="19">
+        <v>7.8</v>
+      </c>
+      <c r="J16" s="19">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K16" s="19">
+        <v>9.1</v>
+      </c>
+      <c r="L16" s="19">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>AVERAGE(A11:A16)</f>
+        <v>5.9499999999999993</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17" si="2">AVERAGE(B11:B16)</f>
+        <v>6.25</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17" si="3">AVERAGE(C11:C16)</f>
+        <v>6.5333333333333323</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17" si="4">AVERAGE(D11:D16)</f>
+        <v>6.7250000000000005</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17" si="5">AVERAGE(E11:E16)</f>
+        <v>6.7</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="6">AVERAGE(F11:F16)</f>
+        <v>6.9083333333333341</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17" si="7">AVERAGE(G11:G16)</f>
+        <v>6.9666666666666659</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17" si="8">AVERAGE(H11:H16)</f>
+        <v>7.3583333333333343</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17" si="9">AVERAGE(I11:I16)</f>
+        <v>7.81</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17" si="10">AVERAGE(J11:J16)</f>
+        <v>8.5599999999999987</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17" si="11">AVERAGE(K11:K16)</f>
+        <v>9.42</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17" si="12">AVERAGE(L11:L16)</f>
+        <v>10.012499999999999</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17" si="13">AVERAGE(M11:M16)</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>STDEV(A11:A16)</f>
+        <v>9.4868329805051416E-2</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:M18" si="14">STDEV(B11:B16)</f>
+        <v>0.10000000000000017</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="14"/>
+        <v>0.16020819787597207</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="14"/>
+        <v>0.14404860290887947</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="14"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="14"/>
+        <v>6.6458006791256352E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="14"/>
+        <v>0.18885620632287078</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="14"/>
+        <v>0.23752192881219764</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="14"/>
+        <v>0.34168699126539759</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="14"/>
+        <v>0.54474764799859376</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="14"/>
+        <v>0.70675313936338502</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="14"/>
+        <v>0.88352985235361481</v>
+      </c>
+      <c r="M18" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>6.3583333333333343</v>
+      </c>
+      <c r="C22">
+        <v>6.5083333333333329</v>
+      </c>
+      <c r="D22">
+        <v>6.8833333333333329</v>
+      </c>
+      <c r="E22">
+        <v>7.0249999999999995</v>
+      </c>
+      <c r="F22">
+        <v>7.125</v>
+      </c>
+      <c r="G22">
+        <v>7.2666666666666666</v>
+      </c>
+      <c r="H22">
+        <v>7.5166666666666666</v>
+      </c>
+      <c r="I22">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="J22">
+        <v>8.5</v>
+      </c>
+      <c r="K22">
+        <v>9.17</v>
+      </c>
+      <c r="L22">
+        <v>9.4749999999999996</v>
+      </c>
+      <c r="M22">
+        <v>9.7874999999999996</v>
+      </c>
+      <c r="N22">
+        <v>9.5666666666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>5.9499999999999993</v>
+      </c>
+      <c r="C23">
+        <v>6.25</v>
+      </c>
+      <c r="D23">
+        <v>6.5333333333333323</v>
+      </c>
+      <c r="E23">
+        <v>6.7250000000000005</v>
+      </c>
+      <c r="F23">
+        <v>6.7</v>
+      </c>
+      <c r="G23">
+        <v>6.9083333333333341</v>
+      </c>
+      <c r="H23">
+        <v>6.9666666666666659</v>
+      </c>
+      <c r="I23">
+        <v>7.3583333333333343</v>
+      </c>
+      <c r="J23">
+        <v>7.81</v>
+      </c>
+      <c r="K23">
+        <v>8.5599999999999987</v>
+      </c>
+      <c r="L23">
+        <v>9.42</v>
+      </c>
+      <c r="M23">
+        <v>10.012499999999999</v>
+      </c>
+      <c r="N23">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6.49</v>
+      </c>
+      <c r="B53">
+        <v>6.6</v>
+      </c>
+      <c r="C53">
+        <v>6.96</v>
+      </c>
+      <c r="D53">
+        <v>7.05</v>
+      </c>
+      <c r="E53">
+        <v>7.2050000000000001</v>
+      </c>
+      <c r="F53">
+        <v>7.335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>6.34</v>
+      </c>
+      <c r="B54">
+        <v>6.5449999999999999</v>
+      </c>
+      <c r="C54">
+        <v>6.7850000000000001</v>
+      </c>
+      <c r="D54">
+        <v>7.1150000000000002</v>
+      </c>
+      <c r="E54">
+        <v>7.21</v>
+      </c>
+      <c r="F54">
+        <v>7.37</v>
+      </c>
+      <c r="G54">
+        <v>7.6749999999999998</v>
+      </c>
+      <c r="H54">
+        <v>8.1649999999999991</v>
+      </c>
+      <c r="I54">
+        <v>8.8149999999999995</v>
+      </c>
+      <c r="J54">
+        <v>9.5950000000000006</v>
+      </c>
+      <c r="K54">
+        <v>10.685</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>6.3650000000000002</v>
+      </c>
+      <c r="B55">
+        <v>6.58</v>
+      </c>
+      <c r="C55">
+        <v>6.81</v>
+      </c>
+      <c r="D55">
+        <v>7.02</v>
+      </c>
+      <c r="E55">
+        <v>7.23</v>
+      </c>
+      <c r="F55">
+        <v>7.44</v>
+      </c>
+      <c r="G55">
+        <v>7.78</v>
+      </c>
+      <c r="H55">
+        <v>8.1750000000000007</v>
+      </c>
+      <c r="I55">
+        <v>8.7249999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>6.41</v>
+      </c>
+      <c r="B56">
+        <v>6.625</v>
+      </c>
+      <c r="C56">
+        <v>6.9749999999999996</v>
+      </c>
+      <c r="D56">
+        <v>7.0350000000000001</v>
+      </c>
+      <c r="E56">
+        <v>7.1950000000000003</v>
+      </c>
+      <c r="F56">
+        <v>7.37</v>
+      </c>
+      <c r="G56">
+        <v>7.69</v>
+      </c>
+      <c r="H56">
+        <v>7.9950000000000001</v>
+      </c>
+      <c r="I56">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="J56">
+        <v>8.77</v>
+      </c>
+      <c r="K56">
+        <v>9.4149999999999991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>6.375</v>
+      </c>
+      <c r="B57">
+        <v>6.58</v>
+      </c>
+      <c r="C57">
+        <v>6.88</v>
+      </c>
+      <c r="D57">
+        <v>7.0750000000000002</v>
+      </c>
+      <c r="E57">
+        <v>7.1550000000000002</v>
+      </c>
+      <c r="F57">
+        <v>7.3049999999999997</v>
+      </c>
+      <c r="G57">
+        <v>7.59</v>
+      </c>
+      <c r="H57">
+        <v>7.81</v>
+      </c>
+      <c r="I57">
+        <v>8.375</v>
+      </c>
+      <c r="J57">
+        <v>8.92</v>
+      </c>
+      <c r="K57">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="19">
+        <v>6.4249999999999998</v>
+      </c>
+      <c r="B58" s="19">
+        <v>6.6050000000000004</v>
+      </c>
+      <c r="C58" s="19">
+        <v>6.9450000000000003</v>
+      </c>
+      <c r="D58" s="19">
+        <v>6.99</v>
+      </c>
+      <c r="E58" s="19">
+        <v>7.1849999999999996</v>
+      </c>
+      <c r="F58" s="19">
+        <v>7.4749999999999996</v>
+      </c>
+      <c r="G58" s="19">
+        <v>7.62</v>
+      </c>
+      <c r="H58" s="19">
+        <v>7.9249999999999998</v>
+      </c>
+      <c r="I58" s="19">
+        <v>8.4250000000000007</v>
+      </c>
+      <c r="J58" s="19">
+        <v>8.9149999999999991</v>
+      </c>
+      <c r="K58" s="19">
+        <v>9.7650000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f>AVERAGE(A53:A58)</f>
+        <v>6.4008333333333338</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59:K59" si="15">AVERAGE(B53:B58)</f>
+        <v>6.5891666666666664</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="15"/>
+        <v>6.892500000000001</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="15"/>
+        <v>7.0475000000000003</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="15"/>
+        <v>7.1966666666666663</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="15"/>
+        <v>7.3825000000000003</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="15"/>
+        <v>7.6709999999999994</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="15"/>
+        <v>8.0139999999999993</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="15"/>
+        <v>8.5240000000000009</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="15"/>
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="15"/>
+        <v>9.9287500000000009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f>STDEV(A53:A58)</f>
+        <v>5.3424401416082082E-2</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60:K60" si="16">STDEV(B53:B58)</f>
+        <v>2.7462095088806832E-2</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="16"/>
+        <v>8.0792945236573724E-2</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="16"/>
+        <v>4.3674935603844986E-2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="16"/>
+        <v>2.5429641497014262E-2</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="16"/>
+        <v>6.3933559262722137E-2</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="16"/>
+        <v>7.3177865505902953E-2</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="16"/>
+        <v>0.15701910711757355</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="16"/>
+        <v>0.23271226869247771</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="16"/>
+        <v>0.36993242626187878</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="16"/>
+        <v>0.53816625374197058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>6.11</v>
+      </c>
+      <c r="B64">
+        <v>6.29</v>
+      </c>
+      <c r="C64">
+        <v>6.5650000000000004</v>
+      </c>
+      <c r="D64">
+        <v>6.7450000000000001</v>
+      </c>
+      <c r="E64">
+        <v>6.85</v>
+      </c>
+      <c r="F64">
+        <v>6.9450000000000003</v>
+      </c>
+      <c r="G64">
+        <v>6.9649999999999999</v>
+      </c>
+      <c r="H64">
+        <v>7.0449999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>6.07</v>
+      </c>
+      <c r="B65">
+        <v>6.1849999999999996</v>
+      </c>
+      <c r="C65">
+        <v>6.45</v>
+      </c>
+      <c r="D65">
+        <v>6.7</v>
+      </c>
+      <c r="E65">
+        <v>6.81</v>
+      </c>
+      <c r="F65">
+        <v>6.8550000000000004</v>
+      </c>
+      <c r="G65">
+        <v>7.1</v>
+      </c>
+      <c r="H65">
+        <v>7.5</v>
+      </c>
+      <c r="I65">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>6.0549999999999997</v>
+      </c>
+      <c r="B66">
+        <v>6.2549999999999999</v>
+      </c>
+      <c r="C66">
+        <v>6.54</v>
+      </c>
+      <c r="D66">
+        <v>6.85</v>
+      </c>
+      <c r="E66">
+        <v>6.9050000000000002</v>
+      </c>
+      <c r="F66">
+        <v>6.97</v>
+      </c>
+      <c r="G66">
+        <v>7.14</v>
+      </c>
+      <c r="H66">
+        <v>7.61</v>
+      </c>
+      <c r="I66">
+        <v>8.32</v>
+      </c>
+      <c r="J66">
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>6.1</v>
+      </c>
+      <c r="B67">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="C67">
+        <v>6.6</v>
+      </c>
+      <c r="D67">
+        <v>6.7450000000000001</v>
+      </c>
+      <c r="E67">
+        <v>6.8150000000000004</v>
+      </c>
+      <c r="F67">
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="G67">
+        <v>7.08</v>
+      </c>
+      <c r="H67">
+        <v>7.335</v>
+      </c>
+      <c r="I67">
+        <v>7.5149999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>6.1</v>
+      </c>
+      <c r="B68">
+        <v>6.26</v>
+      </c>
+      <c r="C68">
+        <v>6.5350000000000001</v>
+      </c>
+      <c r="D68">
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="E68">
+        <v>6.86</v>
+      </c>
+      <c r="F68">
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="G68">
+        <v>6.9749999999999996</v>
+      </c>
+      <c r="H68">
+        <v>7.2949999999999999</v>
+      </c>
+      <c r="I68">
+        <v>7.63</v>
+      </c>
+      <c r="J68">
+        <v>8.23</v>
+      </c>
+      <c r="K68">
+        <v>9.0850000000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="19">
+        <v>6.16</v>
+      </c>
+      <c r="B69" s="19">
+        <v>6.2649999999999997</v>
+      </c>
+      <c r="C69" s="19">
+        <v>6.54</v>
+      </c>
+      <c r="D69" s="19">
+        <v>6.81</v>
+      </c>
+      <c r="E69" s="19">
+        <v>6.7649999999999997</v>
+      </c>
+      <c r="F69" s="19">
+        <v>6.9</v>
+      </c>
+      <c r="G69" s="19">
+        <v>7.07</v>
+      </c>
+      <c r="H69" s="19">
+        <v>7.3150000000000004</v>
+      </c>
+      <c r="I69" s="19">
+        <v>7.69</v>
+      </c>
+      <c r="J69" s="19">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f>AVERAGE(A64:A69)</f>
+        <v>6.0991666666666662</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70:K70" si="17">AVERAGE(B64:B69)</f>
+        <v>6.2616666666666667</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="17"/>
+        <v>6.5383333333333331</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="17"/>
+        <v>6.7475000000000014</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="17"/>
+        <v>6.8341666666666674</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="17"/>
+        <v>6.9316666666666658</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="17"/>
+        <v>7.0549999999999997</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="17"/>
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="17"/>
+        <v>7.8570000000000011</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="17"/>
+        <v>8.5649999999999995</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="17"/>
+        <v>9.0850000000000009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f>STDEV(A64:A69)</f>
+        <v>3.6389100932376343E-2</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71:K71" si="18">STDEV(B64:B69)</f>
+        <v>4.3779751788545894E-2</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="18"/>
+        <v>4.9665548085837688E-2</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="18"/>
+        <v>7.6599608354090049E-2</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="18"/>
+        <v>4.8313214203431799E-2</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="18"/>
+        <v>5.0166389810974543E-2</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="18"/>
+        <v>7.0142711667000743E-2</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="18"/>
+        <v>0.19370080020485211</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="18"/>
+        <v>0.34831020656880013</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="18"/>
+        <v>0.48808298474747086</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="21">
+        <v>6.4008333333333338</v>
+      </c>
+      <c r="C75" s="21">
+        <v>6.5891666666666664</v>
+      </c>
+      <c r="D75" s="21">
+        <v>6.892500000000001</v>
+      </c>
+      <c r="E75" s="21">
+        <v>7.0475000000000003</v>
+      </c>
+      <c r="F75" s="21">
+        <v>7.1966666666666663</v>
+      </c>
+      <c r="G75" s="21">
+        <v>7.3825000000000003</v>
+      </c>
+      <c r="H75" s="21">
+        <v>7.6709999999999994</v>
+      </c>
+      <c r="I75" s="21">
+        <v>8.0139999999999993</v>
+      </c>
+      <c r="J75" s="21">
+        <v>8.5240000000000009</v>
+      </c>
+      <c r="K75" s="21">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="L75" s="21">
+        <v>9.9287500000000009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="21">
+        <v>6.0991666666666662</v>
+      </c>
+      <c r="C76" s="21">
+        <v>6.2616666666666667</v>
+      </c>
+      <c r="D76" s="21">
+        <v>6.5383333333333331</v>
+      </c>
+      <c r="E76" s="21">
+        <v>6.7475000000000014</v>
+      </c>
+      <c r="F76" s="21">
+        <v>6.8341666666666674</v>
+      </c>
+      <c r="G76" s="21">
+        <v>6.9316666666666658</v>
+      </c>
+      <c r="H76" s="21">
+        <v>7.0549999999999997</v>
+      </c>
+      <c r="I76" s="21">
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="J76" s="21">
+        <v>7.8570000000000011</v>
+      </c>
+      <c r="K76" s="21">
+        <v>8.5649999999999995</v>
+      </c>
+      <c r="L76" s="21">
+        <v>9.0850000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>